--- a/product.xlsx
+++ b/product.xlsx
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>45254000</v>
+        <v>43206000</v>
       </c>
     </row>
     <row r="11">
